--- a/Code/Results/Cases/Case_0_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017958622224661</v>
+        <v>1.054759570309093</v>
       </c>
       <c r="D2">
-        <v>1.030596371926214</v>
+        <v>1.061497355633386</v>
       </c>
       <c r="E2">
-        <v>1.030269197874657</v>
+        <v>1.06116292618961</v>
       </c>
       <c r="F2">
-        <v>1.037433216041547</v>
+        <v>1.071593373754983</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054620025849714</v>
+        <v>1.041099111415091</v>
       </c>
       <c r="J2">
-        <v>1.039615147888989</v>
+        <v>1.059769982955431</v>
       </c>
       <c r="K2">
-        <v>1.041645292649257</v>
+        <v>1.064221255427643</v>
       </c>
       <c r="L2">
-        <v>1.041322345872201</v>
+        <v>1.063887734543676</v>
       </c>
       <c r="M2">
-        <v>1.048394562710816</v>
+        <v>1.074290133938534</v>
       </c>
       <c r="N2">
-        <v>1.016727686671079</v>
+        <v>1.023674500735351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023824328987319</v>
+        <v>1.05596579106465</v>
       </c>
       <c r="D3">
-        <v>1.035675478260637</v>
+        <v>1.062590946997825</v>
       </c>
       <c r="E3">
-        <v>1.035271419273979</v>
+        <v>1.06224397925449</v>
       </c>
       <c r="F3">
-        <v>1.042882549450059</v>
+        <v>1.072781560225625</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056284730206895</v>
+        <v>1.041327091674347</v>
       </c>
       <c r="J3">
-        <v>1.043685936769696</v>
+        <v>1.060626370296301</v>
       </c>
       <c r="K3">
-        <v>1.045871360282064</v>
+        <v>1.065128776527847</v>
       </c>
       <c r="L3">
-        <v>1.045472041937573</v>
+        <v>1.064782682965483</v>
       </c>
       <c r="M3">
-        <v>1.052994636494195</v>
+        <v>1.075293986087462</v>
       </c>
       <c r="N3">
-        <v>1.018100722574318</v>
+        <v>1.023961279460058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027524770407187</v>
+        <v>1.056745720884544</v>
       </c>
       <c r="D4">
-        <v>1.038885218857604</v>
+        <v>1.063298368074</v>
       </c>
       <c r="E4">
-        <v>1.038433441145693</v>
+        <v>1.062943373913508</v>
       </c>
       <c r="F4">
-        <v>1.046327953549642</v>
+        <v>1.073550423855197</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057317221047168</v>
+        <v>1.041472293771668</v>
       </c>
       <c r="J4">
-        <v>1.046249666966356</v>
+        <v>1.061179397103499</v>
       </c>
       <c r="K4">
-        <v>1.048535935904583</v>
+        <v>1.065715203217502</v>
       </c>
       <c r="L4">
-        <v>1.048089123120924</v>
+        <v>1.065361058248249</v>
       </c>
       <c r="M4">
-        <v>1.05589763352736</v>
+        <v>1.075942994785526</v>
       </c>
       <c r="N4">
-        <v>1.018965230180831</v>
+        <v>1.024146398098472</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029058675272106</v>
+        <v>1.057073467304363</v>
       </c>
       <c r="D5">
-        <v>1.040216991496473</v>
+        <v>1.06359571961203</v>
       </c>
       <c r="E5">
-        <v>1.03974562012966</v>
+        <v>1.063237371850789</v>
       </c>
       <c r="F5">
-        <v>1.047757922077555</v>
+        <v>1.073873661821496</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057740893849194</v>
+        <v>1.04153278222928</v>
       </c>
       <c r="J5">
-        <v>1.047311284333911</v>
+        <v>1.06141162396742</v>
       </c>
       <c r="K5">
-        <v>1.049640047713925</v>
+        <v>1.065961546316627</v>
       </c>
       <c r="L5">
-        <v>1.049173712180304</v>
+        <v>1.065604036605413</v>
       </c>
       <c r="M5">
-        <v>1.057101168880937</v>
+        <v>1.076215707146145</v>
       </c>
       <c r="N5">
-        <v>1.019323157714352</v>
+        <v>1.024224115344252</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029314976391028</v>
+        <v>1.057128489441145</v>
       </c>
       <c r="D6">
-        <v>1.040439591513046</v>
+        <v>1.063645643439866</v>
       </c>
       <c r="E6">
-        <v>1.03996495716229</v>
+        <v>1.063286733806972</v>
       </c>
       <c r="F6">
-        <v>1.04799695975386</v>
+        <v>1.073927935381587</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057811429979285</v>
+        <v>1.041542905992046</v>
       </c>
       <c r="J6">
-        <v>1.047488604612439</v>
+        <v>1.061450600329355</v>
       </c>
       <c r="K6">
-        <v>1.049824509100801</v>
+        <v>1.066002897250512</v>
       </c>
       <c r="L6">
-        <v>1.049354921184671</v>
+        <v>1.065644823760344</v>
       </c>
       <c r="M6">
-        <v>1.057302277874769</v>
+        <v>1.076261489103325</v>
       </c>
       <c r="N6">
-        <v>1.019382938245914</v>
+        <v>1.024237158165654</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027545350751533</v>
+        <v>1.056750100780787</v>
       </c>
       <c r="D7">
-        <v>1.038903082238877</v>
+        <v>1.063302341488357</v>
       </c>
       <c r="E7">
-        <v>1.038451040903494</v>
+        <v>1.062947302435593</v>
       </c>
       <c r="F7">
-        <v>1.046347132403688</v>
+        <v>1.073554742945126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057322922597984</v>
+        <v>1.041473104200198</v>
       </c>
       <c r="J7">
-        <v>1.046263915056301</v>
+        <v>1.061182501172822</v>
       </c>
       <c r="K7">
-        <v>1.048550751404676</v>
+        <v>1.065718495614232</v>
       </c>
       <c r="L7">
-        <v>1.048103676033785</v>
+        <v>1.065364305606308</v>
       </c>
       <c r="M7">
-        <v>1.055913780644448</v>
+        <v>1.075946639294598</v>
       </c>
       <c r="N7">
-        <v>1.018970034202178</v>
+        <v>1.024147436978816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019961270455099</v>
+        <v>1.055167338507349</v>
       </c>
       <c r="D8">
-        <v>1.032329262854741</v>
+        <v>1.061866983117207</v>
       </c>
       <c r="E8">
-        <v>1.031975672832683</v>
+        <v>1.061528298313268</v>
       </c>
       <c r="F8">
-        <v>1.039292069055128</v>
+        <v>1.071994921904546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055192066675172</v>
+        <v>1.041176638060264</v>
       </c>
       <c r="J8">
-        <v>1.041005869391977</v>
+        <v>1.060059634059579</v>
       </c>
       <c r="K8">
-        <v>1.043088421265456</v>
+        <v>1.064528122638999</v>
       </c>
       <c r="L8">
-        <v>1.042739255889985</v>
+        <v>1.064190335357513</v>
       </c>
       <c r="M8">
-        <v>1.049964861701178</v>
+        <v>1.074629505093601</v>
       </c>
       <c r="N8">
-        <v>1.017196803902328</v>
+        <v>1.023771511513977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005820615454325</v>
+        <v>1.052373821406162</v>
       </c>
       <c r="D9">
-        <v>1.020119532459928</v>
+        <v>1.05933607935808</v>
       </c>
       <c r="E9">
-        <v>1.019955905783541</v>
+        <v>1.05902687918682</v>
       </c>
       <c r="F9">
-        <v>1.026201748465936</v>
+        <v>1.069246478248357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0510798645457</v>
+        <v>1.040636483392507</v>
       </c>
       <c r="J9">
-        <v>1.031169493930822</v>
+        <v>1.058072434180156</v>
       </c>
       <c r="K9">
-        <v>1.032894405261796</v>
+        <v>1.062424364971509</v>
       </c>
       <c r="L9">
-        <v>1.032733301802635</v>
+        <v>1.062116125775198</v>
       </c>
       <c r="M9">
-        <v>1.038883557593084</v>
+        <v>1.07230428414402</v>
       </c>
       <c r="N9">
-        <v>1.013878156577842</v>
+        <v>1.023105653338298</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9957973842428572</v>
+        <v>1.050508345661071</v>
       </c>
       <c r="D10">
-        <v>1.011501407326262</v>
+        <v>1.057647656799603</v>
       </c>
       <c r="E10">
-        <v>1.011476924241783</v>
+        <v>1.057358564398362</v>
       </c>
       <c r="F10">
-        <v>1.016970515208171</v>
+        <v>1.067414215855303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048075003804326</v>
+        <v>1.040264444126723</v>
       </c>
       <c r="J10">
-        <v>1.024178741080466</v>
+        <v>1.056741816857835</v>
       </c>
       <c r="K10">
-        <v>1.025666059676313</v>
+        <v>1.061017652934637</v>
       </c>
       <c r="L10">
-        <v>1.02564200572593</v>
+        <v>1.060729547727576</v>
       </c>
       <c r="M10">
-        <v>1.031039976111204</v>
+        <v>1.070751206170105</v>
       </c>
       <c r="N10">
-        <v>1.011519058504921</v>
+        <v>1.022659425791189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9912972237313435</v>
+        <v>1.049699805067866</v>
       </c>
       <c r="D11">
-        <v>1.007641814982507</v>
+        <v>1.056916262048044</v>
       </c>
       <c r="E11">
-        <v>1.007680907647302</v>
+        <v>1.056635984348711</v>
       </c>
       <c r="F11">
-        <v>1.012838223883062</v>
+        <v>1.066620816229911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046705589077789</v>
+        <v>1.040100513685114</v>
       </c>
       <c r="J11">
-        <v>1.021036584213449</v>
+        <v>1.056164250856012</v>
       </c>
       <c r="K11">
-        <v>1.022421042581921</v>
+        <v>1.060407518951431</v>
       </c>
       <c r="L11">
-        <v>1.022459412557547</v>
+        <v>1.060128235700273</v>
       </c>
       <c r="M11">
-        <v>1.027522024394293</v>
+        <v>1.070077995598391</v>
       </c>
       <c r="N11">
-        <v>1.010458686289703</v>
+        <v>1.022465649560187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9895998531635576</v>
+        <v>1.049399357916164</v>
       </c>
       <c r="D12">
-        <v>1.006187612708694</v>
+        <v>1.056644543439318</v>
       </c>
       <c r="E12">
-        <v>1.006250854278987</v>
+        <v>1.056367556192924</v>
       </c>
       <c r="F12">
-        <v>1.011281546042046</v>
+        <v>1.066326107942417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046186116951345</v>
+        <v>1.040039196400047</v>
       </c>
       <c r="J12">
-        <v>1.019850982290204</v>
+        <v>1.055949505457707</v>
       </c>
       <c r="K12">
-        <v>1.021197220246175</v>
+        <v>1.060180733669638</v>
       </c>
       <c r="L12">
-        <v>1.021259269696412</v>
+        <v>1.059904742926081</v>
       </c>
       <c r="M12">
-        <v>1.026195754739293</v>
+        <v>1.069827825950811</v>
       </c>
       <c r="N12">
-        <v>1.010058591669065</v>
+        <v>1.02239358840361</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9899651431753661</v>
+        <v>1.049463810281686</v>
       </c>
       <c r="D13">
-        <v>1.006500498559196</v>
+        <v>1.056702830110035</v>
       </c>
       <c r="E13">
-        <v>1.006558535349619</v>
+        <v>1.056425136312495</v>
       </c>
       <c r="F13">
-        <v>1.01161646846928</v>
+        <v>1.066389324093552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046298044107257</v>
+        <v>1.040052368458069</v>
       </c>
       <c r="J13">
-        <v>1.02010615353289</v>
+        <v>1.055995578674878</v>
       </c>
       <c r="K13">
-        <v>1.02146059078705</v>
+        <v>1.060229386889159</v>
       </c>
       <c r="L13">
-        <v>1.021517538116957</v>
+        <v>1.059952689183059</v>
       </c>
       <c r="M13">
-        <v>1.026481150337193</v>
+        <v>1.069881493157604</v>
       </c>
       <c r="N13">
-        <v>1.010144701627058</v>
+        <v>1.022409049575455</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9911574559139359</v>
+        <v>1.049674972457641</v>
       </c>
       <c r="D14">
-        <v>1.007522038301911</v>
+        <v>1.05689380265067</v>
       </c>
       <c r="E14">
-        <v>1.00756311601699</v>
+        <v>1.056613796608692</v>
       </c>
       <c r="F14">
-        <v>1.012710001276565</v>
+        <v>1.066596455649069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046662873253151</v>
+        <v>1.040095453875716</v>
       </c>
       <c r="J14">
-        <v>1.020938965835251</v>
+        <v>1.05614650426023</v>
       </c>
       <c r="K14">
-        <v>1.022320265268048</v>
+        <v>1.06038877596595</v>
       </c>
       <c r="L14">
-        <v>1.022360582368756</v>
+        <v>1.060109764555177</v>
       </c>
       <c r="M14">
-        <v>1.027412801048585</v>
+        <v>1.070057318734792</v>
       </c>
       <c r="N14">
-        <v>1.010425743697641</v>
+        <v>1.022459694679097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9918886031911981</v>
+        <v>1.049805060579638</v>
       </c>
       <c r="D15">
-        <v>1.00814867287575</v>
+        <v>1.057011460991963</v>
       </c>
       <c r="E15">
-        <v>1.008179373399399</v>
+        <v>1.056730032459221</v>
       </c>
       <c r="F15">
-        <v>1.01338083328527</v>
+        <v>1.066724075611887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046886206664141</v>
+        <v>1.040121943736183</v>
       </c>
       <c r="J15">
-        <v>1.021449605281783</v>
+        <v>1.056239466405771</v>
       </c>
       <c r="K15">
-        <v>1.022847453083043</v>
+        <v>1.060486960342509</v>
       </c>
       <c r="L15">
-        <v>1.022877589941451</v>
+        <v>1.060206525455777</v>
       </c>
       <c r="M15">
-        <v>1.027984191674874</v>
+        <v>1.070165636153026</v>
       </c>
       <c r="N15">
-        <v>1.01059806592964</v>
+        <v>1.022490887651553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9960925263646556</v>
+        <v>1.050561989256672</v>
       </c>
       <c r="D16">
-        <v>1.011754747792043</v>
+        <v>1.057696190685836</v>
       </c>
       <c r="E16">
-        <v>1.011726118319332</v>
+        <v>1.057406515561141</v>
       </c>
       <c r="F16">
-        <v>1.017241793520368</v>
+        <v>1.067466870657577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048164402730681</v>
+        <v>1.040275263895412</v>
       </c>
       <c r="J16">
-        <v>1.024384752976601</v>
+        <v>1.056780118401885</v>
       </c>
       <c r="K16">
-        <v>1.025878897095447</v>
+        <v>1.061058123946267</v>
       </c>
       <c r="L16">
-        <v>1.025850767641439</v>
+        <v>1.060769435445919</v>
       </c>
       <c r="M16">
-        <v>1.031270782517683</v>
+        <v>1.070795869696037</v>
       </c>
       <c r="N16">
-        <v>1.011588580927026</v>
+        <v>1.022672274318033</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986854956778085</v>
+        <v>1.051036580829187</v>
       </c>
       <c r="D17">
-        <v>1.013981580890768</v>
+        <v>1.058125623082741</v>
       </c>
       <c r="E17">
-        <v>1.01391664885915</v>
+        <v>1.057830804026282</v>
       </c>
       <c r="F17">
-        <v>1.019626510100325</v>
+        <v>1.067932800408668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048947525470553</v>
+        <v>1.040370678369578</v>
       </c>
       <c r="J17">
-        <v>1.026194282237747</v>
+        <v>1.057118879370274</v>
       </c>
       <c r="K17">
-        <v>1.027748824382339</v>
+        <v>1.061416126182552</v>
       </c>
       <c r="L17">
-        <v>1.027684990780487</v>
+        <v>1.061122288231576</v>
       </c>
       <c r="M17">
-        <v>1.033298949455634</v>
+        <v>1.071191005408387</v>
       </c>
       <c r="N17">
-        <v>1.012199237889469</v>
+        <v>1.022785904047876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000182617845188</v>
+        <v>1.051313327231338</v>
       </c>
       <c r="D18">
-        <v>1.015268214421637</v>
+        <v>1.058376075213979</v>
       </c>
       <c r="E18">
-        <v>1.015182426096944</v>
+        <v>1.058078266195709</v>
       </c>
       <c r="F18">
-        <v>1.021004544984021</v>
+        <v>1.068204567734325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049397758577105</v>
+        <v>1.040426058504506</v>
       </c>
       <c r="J18">
-        <v>1.027238727872761</v>
+        <v>1.057316337932712</v>
       </c>
       <c r="K18">
-        <v>1.028828502166388</v>
+        <v>1.061624844663725</v>
       </c>
       <c r="L18">
-        <v>1.028744138019645</v>
+        <v>1.061328013137984</v>
       </c>
       <c r="M18">
-        <v>1.034470301563106</v>
+        <v>1.071421412250857</v>
       </c>
       <c r="N18">
-        <v>1.012551701577139</v>
+        <v>1.022852128654733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000690551368836</v>
+        <v>1.051407677981519</v>
       </c>
       <c r="D19">
-        <v>1.015704886348203</v>
+        <v>1.058461468124484</v>
       </c>
       <c r="E19">
-        <v>1.015612039580204</v>
+        <v>1.058162641369574</v>
       </c>
       <c r="F19">
-        <v>1.021472268311016</v>
+        <v>1.068297233144394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04955018146405</v>
+        <v>1.040444895315223</v>
       </c>
       <c r="J19">
-        <v>1.027593021035795</v>
+        <v>1.057383643344986</v>
       </c>
       <c r="K19">
-        <v>1.029194809569073</v>
+        <v>1.061695995661564</v>
       </c>
       <c r="L19">
-        <v>1.029103494235466</v>
+        <v>1.061398145101175</v>
       </c>
       <c r="M19">
-        <v>1.034867764141476</v>
+        <v>1.071499963347158</v>
       </c>
       <c r="N19">
-        <v>1.012671262364146</v>
+        <v>1.022874700438718</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984088907253251</v>
+        <v>1.050985669403775</v>
       </c>
       <c r="D20">
-        <v>1.01374393831861</v>
+        <v>1.058079552012273</v>
       </c>
       <c r="E20">
-        <v>1.013682868039491</v>
+        <v>1.057785283774093</v>
       </c>
       <c r="F20">
-        <v>1.019372000115041</v>
+        <v>1.067882810735966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048864185033559</v>
+        <v>1.040360469592821</v>
       </c>
       <c r="J20">
-        <v>1.026001285050416</v>
+        <v>1.057082547496514</v>
       </c>
       <c r="K20">
-        <v>1.027549346862444</v>
+        <v>1.061377726095191</v>
       </c>
       <c r="L20">
-        <v>1.027489313251445</v>
+        <v>1.061084439595533</v>
       </c>
       <c r="M20">
-        <v>1.03308255947522</v>
+        <v>1.071148618248305</v>
       </c>
       <c r="N20">
-        <v>1.012134107851362</v>
+        <v>1.022773718209989</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908070770927301</v>
+        <v>1.049612793769049</v>
       </c>
       <c r="D21">
-        <v>1.007221799968953</v>
+        <v>1.056837567279892</v>
       </c>
       <c r="E21">
-        <v>1.007267856672826</v>
+        <v>1.056558241686303</v>
       </c>
       <c r="F21">
-        <v>1.012388596276244</v>
+        <v>1.066535460701723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046555743274366</v>
+        <v>1.040082778062287</v>
       </c>
       <c r="J21">
-        <v>1.020694243057258</v>
+        <v>1.056102066291062</v>
       </c>
       <c r="K21">
-        <v>1.022067632759834</v>
+        <v>1.060341844127373</v>
       </c>
       <c r="L21">
-        <v>1.022112833201689</v>
+        <v>1.060063513612845</v>
       </c>
       <c r="M21">
-        <v>1.027139003524267</v>
+        <v>1.070005545512748</v>
       </c>
       <c r="N21">
-        <v>1.010343158942454</v>
+        <v>1.022444783281344</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9858771766619252</v>
+        <v>1.048748921659031</v>
       </c>
       <c r="D22">
-        <v>1.003001241684051</v>
+        <v>1.056056415116776</v>
       </c>
       <c r="E22">
-        <v>1.003117762886304</v>
+        <v>1.055786578783447</v>
       </c>
       <c r="F22">
-        <v>1.007871121488527</v>
+        <v>1.065688302318687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045041475382769</v>
+        <v>1.039905716242745</v>
       </c>
       <c r="J22">
-        <v>1.017249997943294</v>
+        <v>1.055484373511818</v>
       </c>
       <c r="K22">
-        <v>1.018513476932487</v>
+        <v>1.059689650293748</v>
       </c>
       <c r="L22">
-        <v>1.018627708274898</v>
+        <v>1.059420813713696</v>
       </c>
       <c r="M22">
-        <v>1.02328824611883</v>
+        <v>1.069286217398561</v>
       </c>
       <c r="N22">
-        <v>1.00918088232943</v>
+        <v>1.022237482430466</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885054972773307</v>
+        <v>1.049206942885809</v>
       </c>
       <c r="D23">
-        <v>1.005250488658834</v>
+        <v>1.056470544466968</v>
       </c>
       <c r="E23">
-        <v>1.005329348112607</v>
+        <v>1.056195668742539</v>
       </c>
       <c r="F23">
-        <v>1.01027845905343</v>
+        <v>1.066137400019959</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045850373818799</v>
+        <v>1.039999813926241</v>
       </c>
       <c r="J23">
-        <v>1.019086467981174</v>
+        <v>1.055811940742394</v>
       </c>
       <c r="K23">
-        <v>1.020408226816944</v>
+        <v>1.060035475755657</v>
       </c>
       <c r="L23">
-        <v>1.020485581210808</v>
+        <v>1.059761597666608</v>
       </c>
       <c r="M23">
-        <v>1.025340850778621</v>
+        <v>1.069667607327358</v>
       </c>
       <c r="N23">
-        <v>1.009800600692414</v>
+        <v>1.022347422770975</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9985339237880037</v>
+        <v>1.051008674316709</v>
       </c>
       <c r="D24">
-        <v>1.013851356494078</v>
+        <v>1.058100369634138</v>
       </c>
       <c r="E24">
-        <v>1.013788540273919</v>
+        <v>1.057805852472737</v>
       </c>
       <c r="F24">
-        <v>1.01948704207168</v>
+        <v>1.067905398922372</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048901863187666</v>
+        <v>1.040365083344781</v>
       </c>
       <c r="J24">
-        <v>1.026088526147242</v>
+        <v>1.057098964723513</v>
       </c>
       <c r="K24">
-        <v>1.027639516132172</v>
+        <v>1.061395077745153</v>
       </c>
       <c r="L24">
-        <v>1.027577764559191</v>
+        <v>1.061101542037445</v>
       </c>
       <c r="M24">
-        <v>1.033180372680504</v>
+        <v>1.071167771395109</v>
       </c>
       <c r="N24">
-        <v>1.012163548786278</v>
+        <v>1.02277922463153</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009575562428533</v>
+        <v>1.053096556005975</v>
       </c>
       <c r="D25">
-        <v>1.023355827244256</v>
+        <v>1.059990577121224</v>
       </c>
       <c r="E25">
-        <v>1.023140999292268</v>
+        <v>1.059673675158606</v>
       </c>
       <c r="F25">
-        <v>1.029669962532403</v>
+        <v>1.069957005419397</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052187573824328</v>
+        <v>1.040778229628665</v>
       </c>
       <c r="J25">
-        <v>1.033784912760466</v>
+        <v>1.058587193950262</v>
       </c>
       <c r="K25">
-        <v>1.035602078952313</v>
+        <v>1.062968973827273</v>
       </c>
       <c r="L25">
-        <v>1.035390396330003</v>
+        <v>1.062653019174368</v>
       </c>
       <c r="M25">
-        <v>1.041824510674652</v>
+        <v>1.072905921224816</v>
       </c>
       <c r="N25">
-        <v>1.014760681622078</v>
+        <v>1.023278201708266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054759570309093</v>
+        <v>1.01795862222466</v>
       </c>
       <c r="D2">
-        <v>1.061497355633386</v>
+        <v>1.030596371926214</v>
       </c>
       <c r="E2">
-        <v>1.06116292618961</v>
+        <v>1.030269197874657</v>
       </c>
       <c r="F2">
-        <v>1.071593373754983</v>
+        <v>1.037433216041547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041099111415091</v>
+        <v>1.054620025849713</v>
       </c>
       <c r="J2">
-        <v>1.059769982955431</v>
+        <v>1.039615147888989</v>
       </c>
       <c r="K2">
-        <v>1.064221255427643</v>
+        <v>1.041645292649257</v>
       </c>
       <c r="L2">
-        <v>1.063887734543676</v>
+        <v>1.041322345872201</v>
       </c>
       <c r="M2">
-        <v>1.074290133938534</v>
+        <v>1.048394562710816</v>
       </c>
       <c r="N2">
-        <v>1.023674500735351</v>
+        <v>1.016727686671079</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05596579106465</v>
+        <v>1.02382432898732</v>
       </c>
       <c r="D3">
-        <v>1.062590946997825</v>
+        <v>1.035675478260637</v>
       </c>
       <c r="E3">
-        <v>1.06224397925449</v>
+        <v>1.035271419273979</v>
       </c>
       <c r="F3">
-        <v>1.072781560225625</v>
+        <v>1.04288254945006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041327091674347</v>
+        <v>1.056284730206895</v>
       </c>
       <c r="J3">
-        <v>1.060626370296301</v>
+        <v>1.043685936769696</v>
       </c>
       <c r="K3">
-        <v>1.065128776527847</v>
+        <v>1.045871360282065</v>
       </c>
       <c r="L3">
-        <v>1.064782682965483</v>
+        <v>1.045472041937573</v>
       </c>
       <c r="M3">
-        <v>1.075293986087462</v>
+        <v>1.052994636494195</v>
       </c>
       <c r="N3">
-        <v>1.023961279460058</v>
+        <v>1.018100722574318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056745720884544</v>
+        <v>1.027524770407187</v>
       </c>
       <c r="D4">
-        <v>1.063298368074</v>
+        <v>1.038885218857604</v>
       </c>
       <c r="E4">
-        <v>1.062943373913508</v>
+        <v>1.038433441145693</v>
       </c>
       <c r="F4">
-        <v>1.073550423855197</v>
+        <v>1.046327953549642</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041472293771668</v>
+        <v>1.057317221047168</v>
       </c>
       <c r="J4">
-        <v>1.061179397103499</v>
+        <v>1.046249666966356</v>
       </c>
       <c r="K4">
-        <v>1.065715203217502</v>
+        <v>1.048535935904583</v>
       </c>
       <c r="L4">
-        <v>1.065361058248249</v>
+        <v>1.048089123120924</v>
       </c>
       <c r="M4">
-        <v>1.075942994785526</v>
+        <v>1.05589763352736</v>
       </c>
       <c r="N4">
-        <v>1.024146398098472</v>
+        <v>1.018965230180831</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057073467304363</v>
+        <v>1.029058675272106</v>
       </c>
       <c r="D5">
-        <v>1.06359571961203</v>
+        <v>1.040216991496473</v>
       </c>
       <c r="E5">
-        <v>1.063237371850789</v>
+        <v>1.039745620129659</v>
       </c>
       <c r="F5">
-        <v>1.073873661821496</v>
+        <v>1.047757922077555</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04153278222928</v>
+        <v>1.057740893849194</v>
       </c>
       <c r="J5">
-        <v>1.06141162396742</v>
+        <v>1.04731128433391</v>
       </c>
       <c r="K5">
-        <v>1.065961546316627</v>
+        <v>1.049640047713925</v>
       </c>
       <c r="L5">
-        <v>1.065604036605413</v>
+        <v>1.049173712180303</v>
       </c>
       <c r="M5">
-        <v>1.076215707146145</v>
+        <v>1.057101168880936</v>
       </c>
       <c r="N5">
-        <v>1.024224115344252</v>
+        <v>1.019323157714351</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057128489441145</v>
+        <v>1.029314976391029</v>
       </c>
       <c r="D6">
-        <v>1.063645643439866</v>
+        <v>1.040439591513047</v>
       </c>
       <c r="E6">
-        <v>1.063286733806972</v>
+        <v>1.039964957162291</v>
       </c>
       <c r="F6">
-        <v>1.073927935381587</v>
+        <v>1.04799695975386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041542905992046</v>
+        <v>1.057811429979285</v>
       </c>
       <c r="J6">
-        <v>1.061450600329355</v>
+        <v>1.047488604612439</v>
       </c>
       <c r="K6">
-        <v>1.066002897250512</v>
+        <v>1.049824509100801</v>
       </c>
       <c r="L6">
-        <v>1.065644823760344</v>
+        <v>1.049354921184672</v>
       </c>
       <c r="M6">
-        <v>1.076261489103325</v>
+        <v>1.057302277874769</v>
       </c>
       <c r="N6">
-        <v>1.024237158165654</v>
+        <v>1.019382938245914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056750100780787</v>
+        <v>1.027545350751533</v>
       </c>
       <c r="D7">
-        <v>1.063302341488357</v>
+        <v>1.038903082238877</v>
       </c>
       <c r="E7">
-        <v>1.062947302435593</v>
+        <v>1.038451040903494</v>
       </c>
       <c r="F7">
-        <v>1.073554742945126</v>
+        <v>1.046347132403689</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041473104200198</v>
+        <v>1.057322922597984</v>
       </c>
       <c r="J7">
-        <v>1.061182501172822</v>
+        <v>1.046263915056302</v>
       </c>
       <c r="K7">
-        <v>1.065718495614232</v>
+        <v>1.048550751404676</v>
       </c>
       <c r="L7">
-        <v>1.065364305606308</v>
+        <v>1.048103676033785</v>
       </c>
       <c r="M7">
-        <v>1.075946639294598</v>
+        <v>1.055913780644448</v>
       </c>
       <c r="N7">
-        <v>1.024147436978816</v>
+        <v>1.018970034202178</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055167338507349</v>
+        <v>1.019961270455099</v>
       </c>
       <c r="D8">
-        <v>1.061866983117207</v>
+        <v>1.032329262854741</v>
       </c>
       <c r="E8">
-        <v>1.061528298313268</v>
+        <v>1.031975672832683</v>
       </c>
       <c r="F8">
-        <v>1.071994921904546</v>
+        <v>1.039292069055128</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041176638060264</v>
+        <v>1.055192066675172</v>
       </c>
       <c r="J8">
-        <v>1.060059634059579</v>
+        <v>1.041005869391977</v>
       </c>
       <c r="K8">
-        <v>1.064528122638999</v>
+        <v>1.043088421265455</v>
       </c>
       <c r="L8">
-        <v>1.064190335357513</v>
+        <v>1.042739255889986</v>
       </c>
       <c r="M8">
-        <v>1.074629505093601</v>
+        <v>1.049964861701179</v>
       </c>
       <c r="N8">
-        <v>1.023771511513977</v>
+        <v>1.017196803902328</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052373821406162</v>
+        <v>1.005820615454324</v>
       </c>
       <c r="D9">
-        <v>1.05933607935808</v>
+        <v>1.020119532459927</v>
       </c>
       <c r="E9">
-        <v>1.05902687918682</v>
+        <v>1.01995590578354</v>
       </c>
       <c r="F9">
-        <v>1.069246478248357</v>
+        <v>1.026201748465935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040636483392507</v>
+        <v>1.0510798645457</v>
       </c>
       <c r="J9">
-        <v>1.058072434180156</v>
+        <v>1.031169493930821</v>
       </c>
       <c r="K9">
-        <v>1.062424364971509</v>
+        <v>1.032894405261795</v>
       </c>
       <c r="L9">
-        <v>1.062116125775198</v>
+        <v>1.032733301802634</v>
       </c>
       <c r="M9">
-        <v>1.07230428414402</v>
+        <v>1.038883557593084</v>
       </c>
       <c r="N9">
-        <v>1.023105653338298</v>
+        <v>1.013878156577842</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050508345661071</v>
+        <v>0.995797384242855</v>
       </c>
       <c r="D10">
-        <v>1.057647656799603</v>
+        <v>1.011501407326259</v>
       </c>
       <c r="E10">
-        <v>1.057358564398362</v>
+        <v>1.011476924241781</v>
       </c>
       <c r="F10">
-        <v>1.067414215855303</v>
+        <v>1.016970515208169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040264444126723</v>
+        <v>1.048075003804325</v>
       </c>
       <c r="J10">
-        <v>1.056741816857835</v>
+        <v>1.024178741080464</v>
       </c>
       <c r="K10">
-        <v>1.061017652934637</v>
+        <v>1.025666059676311</v>
       </c>
       <c r="L10">
-        <v>1.060729547727576</v>
+        <v>1.025642005725928</v>
       </c>
       <c r="M10">
-        <v>1.070751206170105</v>
+        <v>1.031039976111202</v>
       </c>
       <c r="N10">
-        <v>1.022659425791189</v>
+        <v>1.011519058504921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049699805067866</v>
+        <v>0.9912972237313425</v>
       </c>
       <c r="D11">
-        <v>1.056916262048044</v>
+        <v>1.007641814982506</v>
       </c>
       <c r="E11">
-        <v>1.056635984348711</v>
+        <v>1.0076809076473</v>
       </c>
       <c r="F11">
-        <v>1.066620816229911</v>
+        <v>1.012838223883061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040100513685114</v>
+        <v>1.046705589077788</v>
       </c>
       <c r="J11">
-        <v>1.056164250856012</v>
+        <v>1.021036584213449</v>
       </c>
       <c r="K11">
-        <v>1.060407518951431</v>
+        <v>1.02242104258192</v>
       </c>
       <c r="L11">
-        <v>1.060128235700273</v>
+        <v>1.022459412557546</v>
       </c>
       <c r="M11">
-        <v>1.070077995598391</v>
+        <v>1.027522024394291</v>
       </c>
       <c r="N11">
-        <v>1.022465649560187</v>
+        <v>1.010458686289703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049399357916164</v>
+        <v>0.9895998531635568</v>
       </c>
       <c r="D12">
-        <v>1.056644543439318</v>
+        <v>1.006187612708694</v>
       </c>
       <c r="E12">
-        <v>1.056367556192924</v>
+        <v>1.006250854278987</v>
       </c>
       <c r="F12">
-        <v>1.066326107942417</v>
+        <v>1.011281546042046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040039196400047</v>
+        <v>1.046186116951345</v>
       </c>
       <c r="J12">
-        <v>1.055949505457707</v>
+        <v>1.019850982290204</v>
       </c>
       <c r="K12">
-        <v>1.060180733669638</v>
+        <v>1.021197220246175</v>
       </c>
       <c r="L12">
-        <v>1.059904742926081</v>
+        <v>1.021259269696412</v>
       </c>
       <c r="M12">
-        <v>1.069827825950811</v>
+        <v>1.026195754739292</v>
       </c>
       <c r="N12">
-        <v>1.02239358840361</v>
+        <v>1.010058591669065</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049463810281686</v>
+        <v>0.9899651431753678</v>
       </c>
       <c r="D13">
-        <v>1.056702830110035</v>
+        <v>1.006500498559197</v>
       </c>
       <c r="E13">
-        <v>1.056425136312495</v>
+        <v>1.006558535349621</v>
       </c>
       <c r="F13">
-        <v>1.066389324093552</v>
+        <v>1.011616468469281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040052368458069</v>
+        <v>1.046298044107258</v>
       </c>
       <c r="J13">
-        <v>1.055995578674878</v>
+        <v>1.020106153532892</v>
       </c>
       <c r="K13">
-        <v>1.060229386889159</v>
+        <v>1.021460590787051</v>
       </c>
       <c r="L13">
-        <v>1.059952689183059</v>
+        <v>1.021517538116958</v>
       </c>
       <c r="M13">
-        <v>1.069881493157604</v>
+        <v>1.026481150337195</v>
       </c>
       <c r="N13">
-        <v>1.022409049575455</v>
+        <v>1.010144701627059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049674972457641</v>
+        <v>0.9911574559139352</v>
       </c>
       <c r="D14">
-        <v>1.05689380265067</v>
+        <v>1.00752203830191</v>
       </c>
       <c r="E14">
-        <v>1.056613796608692</v>
+        <v>1.007563116016989</v>
       </c>
       <c r="F14">
-        <v>1.066596455649069</v>
+        <v>1.012710001276565</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040095453875716</v>
+        <v>1.04666287325315</v>
       </c>
       <c r="J14">
-        <v>1.05614650426023</v>
+        <v>1.020938965835251</v>
       </c>
       <c r="K14">
-        <v>1.06038877596595</v>
+        <v>1.022320265268047</v>
       </c>
       <c r="L14">
-        <v>1.060109764555177</v>
+        <v>1.022360582368755</v>
       </c>
       <c r="M14">
-        <v>1.070057318734792</v>
+        <v>1.027412801048585</v>
       </c>
       <c r="N14">
-        <v>1.022459694679097</v>
+        <v>1.01042574369764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049805060579638</v>
+        <v>0.9918886031911994</v>
       </c>
       <c r="D15">
-        <v>1.057011460991963</v>
+        <v>1.008148672875751</v>
       </c>
       <c r="E15">
-        <v>1.056730032459221</v>
+        <v>1.0081793733994</v>
       </c>
       <c r="F15">
-        <v>1.066724075611887</v>
+        <v>1.013380833285271</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040121943736183</v>
+        <v>1.046886206664141</v>
       </c>
       <c r="J15">
-        <v>1.056239466405771</v>
+        <v>1.021449605281784</v>
       </c>
       <c r="K15">
-        <v>1.060486960342509</v>
+        <v>1.022847453083044</v>
       </c>
       <c r="L15">
-        <v>1.060206525455777</v>
+        <v>1.022877589941452</v>
       </c>
       <c r="M15">
-        <v>1.070165636153026</v>
+        <v>1.027984191674876</v>
       </c>
       <c r="N15">
-        <v>1.022490887651553</v>
+        <v>1.010598065929641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050561989256672</v>
+        <v>0.9960925263646556</v>
       </c>
       <c r="D16">
-        <v>1.057696190685836</v>
+        <v>1.011754747792043</v>
       </c>
       <c r="E16">
-        <v>1.057406515561141</v>
+        <v>1.011726118319332</v>
       </c>
       <c r="F16">
-        <v>1.067466870657577</v>
+        <v>1.017241793520368</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040275263895412</v>
+        <v>1.048164402730682</v>
       </c>
       <c r="J16">
-        <v>1.056780118401885</v>
+        <v>1.0243847529766</v>
       </c>
       <c r="K16">
-        <v>1.061058123946267</v>
+        <v>1.025878897095447</v>
       </c>
       <c r="L16">
-        <v>1.060769435445919</v>
+        <v>1.025850767641439</v>
       </c>
       <c r="M16">
-        <v>1.070795869696037</v>
+        <v>1.031270782517683</v>
       </c>
       <c r="N16">
-        <v>1.022672274318033</v>
+        <v>1.011588580927026</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051036580829187</v>
+        <v>0.9986854956778082</v>
       </c>
       <c r="D17">
-        <v>1.058125623082741</v>
+        <v>1.013981580890767</v>
       </c>
       <c r="E17">
-        <v>1.057830804026282</v>
+        <v>1.01391664885915</v>
       </c>
       <c r="F17">
-        <v>1.067932800408668</v>
+        <v>1.019626510100325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040370678369578</v>
+        <v>1.048947525470553</v>
       </c>
       <c r="J17">
-        <v>1.057118879370274</v>
+        <v>1.026194282237747</v>
       </c>
       <c r="K17">
-        <v>1.061416126182552</v>
+        <v>1.027748824382339</v>
       </c>
       <c r="L17">
-        <v>1.061122288231576</v>
+        <v>1.027684990780487</v>
       </c>
       <c r="M17">
-        <v>1.071191005408387</v>
+        <v>1.033298949455633</v>
       </c>
       <c r="N17">
-        <v>1.022785904047876</v>
+        <v>1.012199237889469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051313327231338</v>
+        <v>1.000182617845189</v>
       </c>
       <c r="D18">
-        <v>1.058376075213979</v>
+        <v>1.015268214421637</v>
       </c>
       <c r="E18">
-        <v>1.058078266195709</v>
+        <v>1.015182426096945</v>
       </c>
       <c r="F18">
-        <v>1.068204567734325</v>
+        <v>1.021004544984021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040426058504506</v>
+        <v>1.049397758577105</v>
       </c>
       <c r="J18">
-        <v>1.057316337932712</v>
+        <v>1.027238727872762</v>
       </c>
       <c r="K18">
-        <v>1.061624844663725</v>
+        <v>1.028828502166389</v>
       </c>
       <c r="L18">
-        <v>1.061328013137984</v>
+        <v>1.028744138019645</v>
       </c>
       <c r="M18">
-        <v>1.071421412250857</v>
+        <v>1.034470301563106</v>
       </c>
       <c r="N18">
-        <v>1.022852128654733</v>
+        <v>1.012551701577139</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051407677981519</v>
+        <v>1.000690551368835</v>
       </c>
       <c r="D19">
-        <v>1.058461468124484</v>
+        <v>1.015704886348203</v>
       </c>
       <c r="E19">
-        <v>1.058162641369574</v>
+        <v>1.015612039580203</v>
       </c>
       <c r="F19">
-        <v>1.068297233144394</v>
+        <v>1.021472268311015</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040444895315223</v>
+        <v>1.04955018146405</v>
       </c>
       <c r="J19">
-        <v>1.057383643344986</v>
+        <v>1.027593021035795</v>
       </c>
       <c r="K19">
-        <v>1.061695995661564</v>
+        <v>1.029194809569073</v>
       </c>
       <c r="L19">
-        <v>1.061398145101175</v>
+        <v>1.029103494235465</v>
       </c>
       <c r="M19">
-        <v>1.071499963347158</v>
+        <v>1.034867764141476</v>
       </c>
       <c r="N19">
-        <v>1.022874700438718</v>
+        <v>1.012671262364146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050985669403775</v>
+        <v>0.9984088907253238</v>
       </c>
       <c r="D20">
-        <v>1.058079552012273</v>
+        <v>1.013743938318609</v>
       </c>
       <c r="E20">
-        <v>1.057785283774093</v>
+        <v>1.01368286803949</v>
       </c>
       <c r="F20">
-        <v>1.067882810735966</v>
+        <v>1.01937200011504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040360469592821</v>
+        <v>1.048864185033558</v>
       </c>
       <c r="J20">
-        <v>1.057082547496514</v>
+        <v>1.026001285050415</v>
       </c>
       <c r="K20">
-        <v>1.061377726095191</v>
+        <v>1.027549346862443</v>
       </c>
       <c r="L20">
-        <v>1.061084439595533</v>
+        <v>1.027489313251444</v>
       </c>
       <c r="M20">
-        <v>1.071148618248305</v>
+        <v>1.033082559475219</v>
       </c>
       <c r="N20">
-        <v>1.022773718209989</v>
+        <v>1.012134107851362</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049612793769049</v>
+        <v>0.99080707709273</v>
       </c>
       <c r="D21">
-        <v>1.056837567279892</v>
+        <v>1.007221799968953</v>
       </c>
       <c r="E21">
-        <v>1.056558241686303</v>
+        <v>1.007267856672826</v>
       </c>
       <c r="F21">
-        <v>1.066535460701723</v>
+        <v>1.012388596276244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040082778062287</v>
+        <v>1.046555743274366</v>
       </c>
       <c r="J21">
-        <v>1.056102066291062</v>
+        <v>1.020694243057258</v>
       </c>
       <c r="K21">
-        <v>1.060341844127373</v>
+        <v>1.022067632759834</v>
       </c>
       <c r="L21">
-        <v>1.060063513612845</v>
+        <v>1.022112833201689</v>
       </c>
       <c r="M21">
-        <v>1.070005545512748</v>
+        <v>1.027139003524267</v>
       </c>
       <c r="N21">
-        <v>1.022444783281344</v>
+        <v>1.010343158942454</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048748921659031</v>
+        <v>0.9858771766619251</v>
       </c>
       <c r="D22">
-        <v>1.056056415116776</v>
+        <v>1.003001241684051</v>
       </c>
       <c r="E22">
-        <v>1.055786578783447</v>
+        <v>1.003117762886304</v>
       </c>
       <c r="F22">
-        <v>1.065688302318687</v>
+        <v>1.007871121488527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039905716242745</v>
+        <v>1.045041475382769</v>
       </c>
       <c r="J22">
-        <v>1.055484373511818</v>
+        <v>1.017249997943294</v>
       </c>
       <c r="K22">
-        <v>1.059689650293748</v>
+        <v>1.018513476932487</v>
       </c>
       <c r="L22">
-        <v>1.059420813713696</v>
+        <v>1.018627708274898</v>
       </c>
       <c r="M22">
-        <v>1.069286217398561</v>
+        <v>1.02328824611883</v>
       </c>
       <c r="N22">
-        <v>1.022237482430466</v>
+        <v>1.00918088232943</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049206942885809</v>
+        <v>0.9885054972773305</v>
       </c>
       <c r="D23">
-        <v>1.056470544466968</v>
+        <v>1.005250488658833</v>
       </c>
       <c r="E23">
-        <v>1.056195668742539</v>
+        <v>1.005329348112607</v>
       </c>
       <c r="F23">
-        <v>1.066137400019959</v>
+        <v>1.010278459053429</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039999813926241</v>
+        <v>1.045850373818799</v>
       </c>
       <c r="J23">
-        <v>1.055811940742394</v>
+        <v>1.019086467981173</v>
       </c>
       <c r="K23">
-        <v>1.060035475755657</v>
+        <v>1.020408226816944</v>
       </c>
       <c r="L23">
-        <v>1.059761597666608</v>
+        <v>1.020485581210807</v>
       </c>
       <c r="M23">
-        <v>1.069667607327358</v>
+        <v>1.025340850778621</v>
       </c>
       <c r="N23">
-        <v>1.022347422770975</v>
+        <v>1.009800600692414</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051008674316709</v>
+        <v>0.9985339237880029</v>
       </c>
       <c r="D24">
-        <v>1.058100369634138</v>
+        <v>1.013851356494077</v>
       </c>
       <c r="E24">
-        <v>1.057805852472737</v>
+        <v>1.013788540273919</v>
       </c>
       <c r="F24">
-        <v>1.067905398922372</v>
+        <v>1.019487042071679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040365083344781</v>
+        <v>1.048901863187665</v>
       </c>
       <c r="J24">
-        <v>1.057098964723513</v>
+        <v>1.026088526147241</v>
       </c>
       <c r="K24">
-        <v>1.061395077745153</v>
+        <v>1.027639516132172</v>
       </c>
       <c r="L24">
-        <v>1.061101542037445</v>
+        <v>1.02757776455919</v>
       </c>
       <c r="M24">
-        <v>1.071167771395109</v>
+        <v>1.033180372680504</v>
       </c>
       <c r="N24">
-        <v>1.02277922463153</v>
+        <v>1.012163548786277</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053096556005975</v>
+        <v>1.00957556242853</v>
       </c>
       <c r="D25">
-        <v>1.059990577121224</v>
+        <v>1.023355827244253</v>
       </c>
       <c r="E25">
-        <v>1.059673675158606</v>
+        <v>1.023140999292266</v>
       </c>
       <c r="F25">
-        <v>1.069957005419397</v>
+        <v>1.0296699625324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040778229628665</v>
+        <v>1.052187573824327</v>
       </c>
       <c r="J25">
-        <v>1.058587193950262</v>
+        <v>1.033784912760463</v>
       </c>
       <c r="K25">
-        <v>1.062968973827273</v>
+        <v>1.03560207895231</v>
       </c>
       <c r="L25">
-        <v>1.062653019174368</v>
+        <v>1.03539039633</v>
       </c>
       <c r="M25">
-        <v>1.072905921224816</v>
+        <v>1.041824510674649</v>
       </c>
       <c r="N25">
-        <v>1.023278201708266</v>
+        <v>1.014760681622077</v>
       </c>
     </row>
   </sheetData>
